--- a/archivos/detalleBarrilesPlantel.xlsx
+++ b/archivos/detalleBarrilesPlantel.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Nicaragua\archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E979167F-EDCA-47AD-A121-7270BE3CBE5F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B99AED-DD69-4DDF-B05F-405278320207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Principal" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -280,10 +280,19 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -301,28 +310,19 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -414,14 +414,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>19080</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>742455</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>147600</xdr:rowOff>
     </xdr:to>
@@ -437,13 +437,20 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19080" y="0"/>
-          <a:ext cx="2765520" cy="804600"/>
+          <a:off x="9525" y="0"/>
+          <a:ext cx="2809875" cy="804825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -758,7 +765,7 @@
   <dimension ref="A1:R1010"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8:J8"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -783,79 +790,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
     </row>
     <row r="2" spans="2:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
     </row>
     <row r="3" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
     </row>
     <row r="4" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
     </row>
     <row r="5" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
@@ -867,34 +874,34 @@
       <c r="Q6" s="4"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="21" t="s">
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="21"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
       <c r="Q7" s="4"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
       <c r="N8" s="7"/>
       <c r="Q8" s="4"/>
     </row>
@@ -902,46 +909,46 @@
       <c r="Q9" s="4"/>
     </row>
     <row r="10" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="16"/>
+      <c r="E10" s="21"/>
     </row>
     <row r="11" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="17" t="s">
+      <c r="D11" s="23"/>
+      <c r="E11" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="17" t="s">
+      <c r="F11" s="23"/>
+      <c r="G11" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="17" t="s">
+      <c r="H11" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="28" t="s">
+      <c r="I11" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="J11" s="28" t="s">
+      <c r="J11" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="K11" s="28" t="s">
+      <c r="K11" s="26" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="2:18" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="19"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D13" s="6"/>
@@ -982,9 +989,9 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="24"/>
-      <c r="K15" s="24"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="15"/>
+      <c r="K15" s="15"/>
       <c r="N15" s="9"/>
       <c r="O15" s="9"/>
       <c r="Q15" s="4"/>
@@ -7895,11 +7902,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E11:F12"/>
-    <mergeCell ref="G11:G12"/>
     <mergeCell ref="H11:H12"/>
     <mergeCell ref="I11:I12"/>
     <mergeCell ref="J11:J12"/>
@@ -7909,6 +7911,11 @@
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="D5:J5"/>
     <mergeCell ref="D10:E10"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E11:F12"/>
+    <mergeCell ref="G11:G12"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
